--- a/要件ex_テスト/画像エビデンス_要件ex_問題番号の訂正,最終画面への遷移の修正_単体テスト仕様書.xlsx
+++ b/要件ex_テスト/画像エビデンス_要件ex_問題番号の訂正,最終画面への遷移の修正_単体テスト仕様書.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kskcojp.sharepoint.com/sites/ES11/Shared Documents/General/03_臨時/31_新人受入/FY24/演習_社内システム改修/単体テスト/DAO&amp;Form部分_虎井/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B010163\Documents\quizsheet\要件ex_テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BCA8C571-A354-4595-81A7-DB469B605926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40DC2928-E8C2-4731-B12A-318063FD1D89}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3167F6-5232-4B67-BCAD-AC871D7E2ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33015" yWindow="0" windowWidth="14265" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{96769ED9-B6FC-4229-BEC5-ADA69A10894D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96769ED9-B6FC-4229-BEC5-ADA69A10894D}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
-    <sheet name="No.1" sheetId="1" r:id="rId2"/>
-    <sheet name="No.2" sheetId="3" r:id="rId3"/>
-    <sheet name="No.3" sheetId="5" r:id="rId4"/>
-    <sheet name="No.4" sheetId="4" r:id="rId5"/>
+    <sheet name="No.1" sheetId="6" r:id="rId2"/>
+    <sheet name="No.2" sheetId="7" r:id="rId3"/>
+    <sheet name="No.3" sheetId="8" r:id="rId4"/>
+    <sheet name="No.4" sheetId="9" r:id="rId5"/>
+    <sheet name="No.5" sheetId="10" r:id="rId6"/>
+    <sheet name="No.6" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,27 +42,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
-  <si>
-    <t>DAO&amp;Form単体テスト
-画像エビデンス</t>
-    <rPh sb="8" eb="10">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>KSKポスト</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -71,23 +58,12 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SmileCard</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>機能名</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>追加機能</t>
-    <rPh sb="0" eb="4">
-      <t>ツイカキノウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -181,192 +157,231 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>枠線で囲んだ部分を用いて値を取得</t>
+    <t>QuizSheet</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問題出題画面</t>
     <rPh sb="0" eb="2">
-      <t>ワクセン</t>
+      <t>モンダイ</t>
     </rPh>
-    <rPh sb="9" eb="10">
-      <t>モチ</t>
+    <rPh sb="2" eb="6">
+      <t>シュツダイガメン</t>
     </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最終結果画面への遷移・問題番号表示</t>
+    <rPh sb="11" eb="17">
+      <t>モンダイバンゴウヒョウジ</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュトク</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>出題設定：</t>
+    <rPh sb="0" eb="4">
+      <t>シュツダイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>対象問題</t>
+    <rPh sb="0" eb="4">
+      <t>タイショウモンダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Associate Reactive過去問</t>
+  </si>
+  <si>
+    <t>カテゴリー選択</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>全て選択</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>問題数</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10問</t>
+    <rPh sb="2" eb="3">
+      <t>モン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>出題順</t>
+    <rPh sb="0" eb="3">
+      <t>シュツダイジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ランダム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認要件：</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・問題番号が1/10となっているか確認</t>
+  </si>
+  <si>
+    <t>・正答数が0になっているか確認</t>
+  </si>
+  <si>
+    <t>・正答率が0%になっているか確認</t>
+  </si>
+  <si>
+    <t>・連続正解が0になっているか確認</t>
+  </si>
+  <si>
+    <t>テストの出題設定</t>
+    <rPh sb="4" eb="8">
+      <t>シュツダイセッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SQL文追加箇所</t>
-    <rPh sb="3" eb="8">
-      <t>ブンツイカカショ</t>
+    <t>赤枠部分が確認項目</t>
+    <rPh sb="0" eb="4">
+      <t>アカワクブブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>実施結果</t>
-    <rPh sb="0" eb="4">
-      <t>ジッシケッカ</t>
+    <t>問題画面の左上が問題番号になっているか</t>
+  </si>
+  <si>
+    <t>・次の問題が表示されているか</t>
+  </si>
+  <si>
+    <t>・問題番号の表示が2/10になっているか</t>
+  </si>
+  <si>
+    <t>・解説と「次へ」ボタンが再び非表示になるか</t>
+  </si>
+  <si>
+    <t>1問目解答時</t>
+    <rPh sb="1" eb="3">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>表示フォーマット：yyyy/mm/dd</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
+    <t>「次へ」のボタンを押した時</t>
+    <rPh sb="1" eb="2">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>update_dateをNULLに設定</t>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
+    <t>30秒後も画面が遷移せず、同じ問題画面が表示され続けているか</t>
+  </si>
+  <si>
+    <t>最終問題回答後</t>
+    <rPh sb="0" eb="4">
+      <t>サイシュウモンダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>枠線で囲んだ部分を用いて値を取得</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>枠線で囲んだ部分を確認</t>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
+    <t>30秒経過後</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>setter使用箇所</t>
-    <rPh sb="6" eb="10">
-      <t>シヨウカショ</t>
+    <t>問題番号の表示が10/10になっているか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最後の問題を解いた後に、「次へ」ボタンを押してから最終結果画面へ遷移しているか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「次へ」ボタンを押した後</t>
+    <rPh sb="1" eb="2">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>update_dateが正常に値を保持している場合</t>
+    <t>QuizSheet改修(要件ex)
+画像エビデンス</t>
+    <rPh sb="9" eb="11">
+      <t>カイシュウ</t>
+    </rPh>
     <rPh sb="12" eb="14">
-      <t>セイジョウ</t>
+      <t>ヨウケン</t>
     </rPh>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
+    <rPh sb="18" eb="20">
+      <t>ガゾウ</t>
     </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>update_dateを"2024-11-15"に変更</t>
-    <rPh sb="25" eb="27">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実行ソース</t>
-    <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上記ソース実行時の値(赤枠)</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ジッコウジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>アカワク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>update_dateがnullを保持している場合</t>
-    <rPh sb="17" eb="19">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>update_dateをnullに変更</t>
-    <rPh sb="17" eb="19">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上記ソース実行時の値(赤枠)</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ジッコウジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ワク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>引数に空文字がある場合(DBでは空文字は設定されない)</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>クウモジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>クウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>上記ソース実行前の値(赤枠)</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ワク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -376,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +464,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -836,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,6 +930,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -938,6 +974,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1037,23 +1076,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>654504</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200865</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1BA7D1-D5FD-EA16-B3B0-78BB9B1314EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE31DACB-4576-89B0-498F-D1E3017C30F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,1042 +1100,26 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="25251" t="18952" r="23228" b="47684"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="654504" y="488949"/>
-          <a:ext cx="7433061" cy="2600325"/>
+          <a:off x="762000" y="2743200"/>
+          <a:ext cx="7769225" cy="4083684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>639097</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>388069</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>179041</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D82A71-C0AA-4779-8C9E-1CCBE270D3F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="77412" t="46250" r="621" b="30005"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="639097" y="6658180"/>
-          <a:ext cx="5006772" cy="2893461"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D974B3-4759-566D-900F-33640E4FFAD4}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F1D82A71-C0AA-4779-8C9E-1CCBE270D3F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1924050" y="1990725"/>
-          <a:ext cx="6410325" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>27551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>131915</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>27551</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E31100F-2C96-A49A-7FAC-EDBC4E427BD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="29889" t="32685" r="13062" b="38951"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670129" y="3714648"/>
-          <a:ext cx="9370859" cy="2534879"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7665DA5E-3236-8637-09D1-0ABB02AB8CA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="692150" y="466724"/>
-          <a:ext cx="13109575" cy="400051"/>
-          <a:chOff x="666750" y="279399"/>
-          <a:chExt cx="12560300" cy="393701"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965CD5A7-76C0-A641-3E56-F404F56F64EC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect l="20904" t="20272" r="2368" b="75236"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="666750" y="279399"/>
-            <a:ext cx="12560300" cy="393701"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA7BB9F-AB40-BF68-CBFE-5364825417B0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12141200" y="457200"/>
-            <a:ext cx="428625" cy="190500"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95ADE6D1-4864-D036-C821-57D8B6B3C04F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="25364" t="31446" r="11968" b="38761"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="654050" y="1377950"/>
-          <a:ext cx="10261601" cy="2628900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35C444A-1F7E-077D-21C9-2105B5D6CC8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1978025" y="1857376"/>
-          <a:ext cx="5594350" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834C0FF1-B05E-F081-6173-2AD32EE27C6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="53713" t="32973" r="15165" b="40763"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="673100" y="4571999"/>
-          <a:ext cx="5095875" cy="2324101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形: 角を丸くする 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B5830E-D484-5294-B8C7-24309C0898B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1209675" y="6457950"/>
-          <a:ext cx="1958975" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0A0D02-2CD2-914D-61DF-67FA81DC44F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="16188" t="37673" r="53258" b="48111"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="501651"/>
-          <a:ext cx="5000625" cy="1257299"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5D77BD-0409-03A2-C11D-08188FA15604}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="1314450"/>
-          <a:ext cx="2543175" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF19DF7-B469-CDC5-EDA6-1E58CA7ED886}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="654050" y="2314575"/>
-          <a:ext cx="3657600" cy="276225"/>
-          <a:chOff x="704850" y="2016125"/>
-          <a:chExt cx="3486150" cy="276225"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="図 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB5E294-C790-8B6E-5ECE-410BAE1371C3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect l="67716" t="47899" r="10964" b="48935"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="704850" y="2016125"/>
-            <a:ext cx="3486150" cy="276225"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BC55AD-21B3-B7C3-375C-22BFBDB70FB8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="828675" y="2095500"/>
-            <a:ext cx="3248025" cy="158750"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>244475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>170145</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2504767-F302-2D76-C5E8-423BA46392A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="16463" t="19812" r="24479" b="31936"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="698500" y="482600"/>
-          <a:ext cx="8131175" cy="3573745"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5D554D-D7CB-76C7-B54F-3BC45DA7B483}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect r="6546" b="-1443"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676275" y="4838700"/>
-          <a:ext cx="11363325" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>564861</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>212436</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>63789</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>96982</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF7BF06-2FB8-8A48-D659-14EA4DA39350}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11080461" y="5013036"/>
-          <a:ext cx="813378" cy="113146"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C2291D-D4A9-A3B5-262D-48BD3348288C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="17526" t="52056" r="56064" b="35234"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="708024" y="5530850"/>
-          <a:ext cx="3355976" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>321975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1D4628-BEE2-4D55-B0AC-785D60D332E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="67114" t="36951" r="1921" b="47551"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="6886576"/>
-          <a:ext cx="4893975" cy="1320799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2105,21 +1128,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161119</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D62553-026C-CB7E-6BB8-F5BD12D658BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991B0E1E-8CCD-68BF-A22B-B1EE4C2D94EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,47 +1151,48 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="8924925"/>
-          <a:ext cx="11420475" cy="154769"/>
+          <a:off x="762000" y="7086600"/>
+          <a:ext cx="7772400" cy="4080509"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>542636</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>40986</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47914</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>154132</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36285A5-68CA-4D00-9591-65C4B77DE5CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F77B0C6-28D0-C344-6CA7-39F97AE18243}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,177 +1200,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11058236" y="8956386"/>
-          <a:ext cx="819728" cy="113146"/>
+          <a:off x="3076575" y="7902575"/>
+          <a:ext cx="3133725" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>73026</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CA580B-059C-4601-8152-DCCDB68AE3F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="17526" t="52056" r="56064" b="35234"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="657225" y="9601200"/>
-          <a:ext cx="3359151" cy="873125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104704</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6D25B8-3C19-1507-B18A-5829C529FF9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676276" y="10521950"/>
-          <a:ext cx="4692578" cy="1031875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54516BB-EEE6-ADC7-65F4-F9B754648FDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="704851" y="11379200"/>
-          <a:ext cx="2390775" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2373,31 +1234,36 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>73026</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D812C81D-5182-4F5D-95F0-7C539E207727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C01569-6673-4767-A8D5-04CF56237680}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,24 +1271,26 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="17526" t="52056" r="56064" b="35234"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="12573000"/>
-          <a:ext cx="3359151" cy="873125"/>
+          <a:off x="838200" y="2057400"/>
+          <a:ext cx="7769225" cy="4083684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2430,22 +1298,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>368440</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF169A6-736A-3344-D2FC-A5182288C1C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D12D27-3C89-4FE1-9A17-07B1E164AEFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,15 +1321,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect b="32575"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="13954125"/>
-          <a:ext cx="4953140" cy="1066800"/>
+          <a:off x="838200" y="6629400"/>
+          <a:ext cx="7772400" cy="4086859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2472,23 +1347,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>206376</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>146049</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB73DF1-6E3F-44C8-AEEB-79C9BEBC7580}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B657A55C-83C5-4E33-B435-3AA4EA48BE14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,14 +1371,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863601" y="14620874"/>
-          <a:ext cx="2552699" cy="155575"/>
+          <a:off x="3171825" y="7486650"/>
+          <a:ext cx="819150" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2530,31 +1405,186 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC95712-3C6A-4857-8361-9BFD21DAB681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="2514600"/>
+          <a:ext cx="7769225" cy="4083684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C38AE4-04F2-D1C1-2CD4-893E23B00EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="6858000"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>207009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE635F8A-C43A-FE74-7CB2-3C235674F0E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="844550" y="11893550"/>
+          <a:ext cx="7775575" cy="4086859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558906D6-FF24-4B0D-952F-07CDF0CB4C18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479F4460-62CE-430E-8EFD-96625375EA5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,14 +1592,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="7874000"/>
-          <a:ext cx="2793999" cy="165100"/>
+          <a:off x="3200400" y="13093700"/>
+          <a:ext cx="3095625" cy="1508125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2596,75 +1626,31 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>311258</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>95926</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6391A46-C28B-F9BE-078A-B959B2B6460D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="657225" y="15773400"/>
-          <a:ext cx="4908658" cy="1010326"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>301626</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>431799</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="四角形: 角を丸くする 16">
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358152C7-88AE-43AD-A49E-FD7333768680}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F73880-E0B6-4B5D-B6E6-771BF309EC57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,14 +1658,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="958851" y="16240125"/>
-          <a:ext cx="2390775" cy="152400"/>
+          <a:off x="3057525" y="14763751"/>
+          <a:ext cx="3365499" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2706,10 +1692,627 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3483AB-6137-483B-80B2-2838E1141CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="12693651"/>
+          <a:ext cx="666750" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4630670-C56C-46E4-A434-74762B2E8912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="2514600"/>
+          <a:ext cx="7769225" cy="4086859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F9A5E-D367-8938-947B-B4DA4FE8D734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="6629400"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC7E1E2-4188-54A3-A298-E57D33973F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="11201400"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDB443F-8EF5-4C88-928F-598175006B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="11839574"/>
+          <a:ext cx="3346449" cy="3613150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6831"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9102EAB-BCA5-4159-94C3-B09CEC24D10C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="2057400"/>
+          <a:ext cx="7769225" cy="4086859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>194309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAEC565-7FF6-D911-EF21-A613DBDAAFC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="6629400"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DBE76D-79C3-454C-8BEC-29712BC6AF25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="7467600"/>
+          <a:ext cx="828676" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6831"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9A6AA1-451D-4094-92B2-E46F402C9424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="2057400"/>
+          <a:ext cx="7769225" cy="4086859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC96DCA-F8DC-6D2A-BBFE-E76CF671BF62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="6629400"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E0DC99-075C-2F1A-BF77-EEA23A929207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="11201400"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3034,13 +2637,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7858F59A-6B92-4223-90AD-AB94470DB825}">
   <dimension ref="A1:AZ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.375" style="4"/>
+    <col min="1" max="16384" width="2.33203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
@@ -3123,32 +2726,32 @@
     </row>
     <row r="7" spans="1:52" ht="13.5" customHeight="1" thickTop="1">
       <c r="A7" s="5"/>
-      <c r="O7" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="35"/>
+      <c r="O7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="37"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
@@ -3166,30 +2769,30 @@
     </row>
     <row r="8" spans="1:52" ht="13.5" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="40"/>
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
@@ -3218,30 +2821,30 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="40"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
@@ -3268,30 +2871,30 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="40"/>
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
@@ -3318,30 +2921,30 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="40"/>
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
       <c r="AO11" s="8"/>
@@ -3371,30 +2974,30 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="40"/>
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
       <c r="AO12" s="8"/>
@@ -3421,30 +3024,30 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="40"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
@@ -3471,30 +3074,30 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="40"/>
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
@@ -3512,30 +3115,30 @@
     </row>
     <row r="15" spans="1:52" ht="13.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="40"/>
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
@@ -3561,30 +3164,30 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="43"/>
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
@@ -3832,30 +3435,30 @@
     </row>
     <row r="22" spans="1:52" ht="13.5" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="Q22" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
+      <c r="Q22" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
       <c r="AK22" s="13"/>
       <c r="AL22" s="13"/>
       <c r="AM22" s="13"/>
@@ -3875,30 +3478,30 @@
     </row>
     <row r="23" spans="1:52" ht="13.5" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="Q23" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
+      <c r="Q23" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
       <c r="AK23" s="13"/>
       <c r="AL23" s="13"/>
       <c r="AM23" s="13"/>
@@ -3918,30 +3521,30 @@
     </row>
     <row r="24" spans="1:52" ht="13.5" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="Q24" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
+      <c r="Q24" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
       <c r="AZ24" s="7"/>
     </row>
     <row r="25" spans="1:52" ht="13.5" customHeight="1">
@@ -3958,30 +3561,30 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="Q25" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
+      <c r="Q25" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="33"/>
       <c r="AZ25" s="7"/>
     </row>
     <row r="26" spans="1:52" ht="13.5" customHeight="1">
@@ -3992,30 +3595,30 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="32">
-        <v>45614</v>
-      </c>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
+      <c r="Q26" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="34">
+        <v>45958</v>
+      </c>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
       <c r="AZ26" s="7"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1">
@@ -4137,16 +3740,16 @@
     </row>
     <row r="32" spans="1:52" ht="13.5" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="D32" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+      <c r="D32" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -4177,34 +3780,34 @@
       <c r="AM32" s="10"/>
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
-      <c r="AP32" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="45"/>
+      <c r="AP32" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="48"/>
       <c r="AX32" s="15"/>
       <c r="AY32" s="15"/>
       <c r="AZ32" s="18"/>
     </row>
     <row r="33" spans="1:52" ht="13.5" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="D33" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
+      <c r="D33" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -4235,36 +3838,36 @@
       <c r="AM33" s="10"/>
       <c r="AN33" s="10"/>
       <c r="AO33" s="10"/>
-      <c r="AP33" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU33" s="44"/>
-      <c r="AV33" s="44"/>
-      <c r="AW33" s="45"/>
+      <c r="AP33" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="47"/>
+      <c r="AS33" s="48"/>
+      <c r="AT33" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU33" s="47"/>
+      <c r="AV33" s="47"/>
+      <c r="AW33" s="48"/>
       <c r="AX33" s="19"/>
       <c r="AY33" s="19"/>
       <c r="AZ33" s="20"/>
     </row>
     <row r="34" spans="1:52" ht="13.5" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="D34" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
+      <c r="D34" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="21"/>
@@ -4295,30 +3898,30 @@
       <c r="AM34" s="10"/>
       <c r="AN34" s="10"/>
       <c r="AO34" s="10"/>
-      <c r="AP34" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ34" s="47"/>
-      <c r="AR34" s="47"/>
-      <c r="AS34" s="48"/>
-      <c r="AT34" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU34" s="47"/>
-      <c r="AV34" s="47"/>
-      <c r="AW34" s="48"/>
+      <c r="AP34" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU34" s="50"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="51"/>
       <c r="AZ34" s="7"/>
     </row>
     <row r="35" spans="1:52" ht="13.5" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57"/>
       <c r="N35" s="19"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -4347,30 +3950,30 @@
       <c r="AM35" s="10"/>
       <c r="AN35" s="19"/>
       <c r="AO35" s="19"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="50"/>
-      <c r="AR35" s="50"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="52"/>
-      <c r="AU35" s="53"/>
-      <c r="AV35" s="53"/>
-      <c r="AW35" s="54"/>
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="53"/>
+      <c r="AR35" s="53"/>
+      <c r="AS35" s="54"/>
+      <c r="AT35" s="55"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="57"/>
       <c r="AZ35" s="7"/>
     </row>
     <row r="36" spans="1:52" ht="13.5" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="D36" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
+      <c r="D36" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="60"/>
       <c r="L36" s="22"/>
       <c r="N36" s="19"/>
       <c r="O36" s="10"/>
@@ -4400,30 +4003,30 @@
       <c r="AM36" s="10"/>
       <c r="AN36" s="19"/>
       <c r="AO36" s="19"/>
-      <c r="AP36" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ36" s="62"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="63"/>
-      <c r="AT36" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU36" s="62"/>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="63"/>
+      <c r="AP36" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ36" s="65"/>
+      <c r="AR36" s="65"/>
+      <c r="AS36" s="66"/>
+      <c r="AT36" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU36" s="65"/>
+      <c r="AV36" s="65"/>
+      <c r="AW36" s="66"/>
       <c r="AZ36" s="7"/>
     </row>
     <row r="37" spans="1:52" ht="13.5" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="60"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="63"/>
       <c r="L37" s="23"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -4453,14 +4056,14 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="10"/>
       <c r="AO37" s="10"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="65"/>
-      <c r="AR37" s="65"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="65"/>
-      <c r="AV37" s="65"/>
-      <c r="AW37" s="66"/>
+      <c r="AP37" s="67"/>
+      <c r="AQ37" s="68"/>
+      <c r="AR37" s="68"/>
+      <c r="AS37" s="69"/>
+      <c r="AT37" s="67"/>
+      <c r="AU37" s="68"/>
+      <c r="AV37" s="68"/>
+      <c r="AW37" s="69"/>
       <c r="AZ37" s="7"/>
     </row>
     <row r="38" spans="1:52" ht="13.5" customHeight="1">
@@ -4569,10 +4172,10 @@
     <row r="41" spans="1:52" ht="13.5" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ41" s="7"/>
     </row>
@@ -4674,29 +4277,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DFE8A7-C557-4F4C-93D7-1747A2F2D53E}">
-  <dimension ref="B2:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB29600-92F0-441A-A3A9-D23AF90585FB}">
+  <dimension ref="A2:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
+      <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C3" s="29" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4707,28 +4381,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1DE398-29A5-4B62-91F5-DCC50A36AD72}">
-  <dimension ref="B2:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEE9974-6075-4987-87A9-BB3FFD004BC5}">
+  <dimension ref="A2:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+      <c r="C4" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>23</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4739,23 +4456,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41458F8-A663-438A-9057-1A222CA123EC}">
-  <dimension ref="B2:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB24578-7BB9-4034-9A6D-4F20157A411A}">
+  <dimension ref="A2:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView topLeftCell="A61" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="C5" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1">
+      <c r="A7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4766,87 +4551,238 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F21B46-8924-4478-B7B6-11959B0926C1}">
-  <dimension ref="A2:B67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B9B3FB-A280-4A74-9D67-79F901B299E4}">
+  <dimension ref="A2:C50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="A61" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA4AB24-CA14-4E42-96A2-7F2CAC003BE6}">
+  <dimension ref="A2:C29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8089EA-7BF0-4B77-A2A7-5FF7D506F896}">
+  <dimension ref="A2:C49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E69" sqref="C69:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="B42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="B56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="B61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
-        <v>35</v>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5106,13 +5042,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70EFC1C-3072-4B05-9C7A-798D094B1519}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70EFC1C-3072-4B05-9C7A-798D094B1519}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ea8a866f-3aa3-4656-8484-346a97fc6dc5"/>
+    <ds:schemaRef ds:uri="c0c61cca-e1ee-4647-9a1f-1577e827af96"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FE227BA-9771-461E-A3B5-0C8CD19DAA86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FE227BA-9771-461E-A3B5-0C8CD19DAA86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ea8a866f-3aa3-4656-8484-346a97fc6dc5"/>
+    <ds:schemaRef ds:uri="c0c61cca-e1ee-4647-9a1f-1577e827af96"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35BF8650-A856-427E-8C6A-32E1342F6D91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35BF8650-A856-427E-8C6A-32E1342F6D91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>